--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="66" documentId="11_F75A79854777E8D6506C2E6D52C9EA1EAFFFC151" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{85B2F734-6340-4EEF-9165-192613BFEF5B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95AA733-D165-EC4E-9369-46ABB88788C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31845" yWindow="-120" windowWidth="11820" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13780" yWindow="460" windowWidth="11820" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,9 +18,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -115,7 +112,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,31 +438,31 @@
   <dimension ref="A1:BS5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BT5" sqref="BT5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="10" width="10.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="17" width="10.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="24" width="10.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="27" max="30" width="9.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="31" max="35" width="9.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="36" max="56" width="10.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="57" max="64" width="9.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="65" max="65" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="71" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.5" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="10" width="10.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="17" width="10.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="24" width="10.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="11.5" style="1" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="10.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="27" max="30" width="9.5" style="1" hidden="1" customWidth="1"/>
+    <col min="31" max="35" width="9.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="36" max="56" width="10.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="57" max="64" width="9.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="65" max="65" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="71" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71">
+    <row r="1" spans="1:71" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,7 +674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:71">
+    <row r="2" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,7 +889,7 @@
         <v>43814</v>
       </c>
     </row>
-    <row r="3" spans="1:71">
+    <row r="3" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -900,7 +897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:71">
+    <row r="4" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -920,7 +917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:71" ht="30">
+    <row r="5" spans="1:71" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1272,13 +1269,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50113B43-9CBF-4597-9CFC-9FE8C392969D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50113B43-9CBF-4597-9CFC-9FE8C392969D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ac7321bc-394f-4183-b398-e3bd3cc6b739"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A8C00E9-C417-466A-BD02-B7B4D4C9CCC5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A8C00E9-C417-466A-BD02-B7B4D4C9CCC5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F68A84B5-10B5-4541-9EB0-856DE58F6CE7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F68A84B5-10B5-4541-9EB0-856DE58F6CE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>